--- a/data/contig_break/group3_fragmentation_comparison.xlsx
+++ b/data/contig_break/group3_fragmentation_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sth19\PycharmProjects\PhD_project\ggCaller_manuscript\data\contig_break\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38914652-84FF-40A4-B2EF-59EF4D24EAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E30C3E-B4C8-4E3D-9671-A30BEA2857FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33990" yWindow="4455" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Stacked_data" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1449" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="26">
   <si>
     <t>Recall</t>
   </si>
@@ -115,6 +115,9 @@
   </si>
   <si>
     <t>GeneMarkS-2 + Panaroo</t>
+  </si>
+  <si>
+    <t>Duplicated_calls</t>
   </si>
 </sst>
 </file>
@@ -432,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E272848-8386-4833-98B6-3AF417D6904B}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="F5">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -594,7 +597,7 @@
         <v>7</v>
       </c>
       <c r="F7">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -674,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="F11">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -714,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="F13">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1074,7 +1077,7 @@
         <v>9</v>
       </c>
       <c r="F31">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1314,7 +1317,7 @@
         <v>10</v>
       </c>
       <c r="F43">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1554,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="F55">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1931,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="E74" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F74">
-        <v>0.92857142857142805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1951,7 +1954,7 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -1971,10 +1974,10 @@
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F76">
-        <v>0.89285714285714202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1991,10 +1994,10 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -2011,10 +2014,10 @@
         <v>1</v>
       </c>
       <c r="E78" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F78">
-        <v>0.88095238095238004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2031,10 +2034,10 @@
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F79">
-        <v>0.202380952380952</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2051,10 +2054,10 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2071,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F81">
-        <v>0.72619047619047605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -2091,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2111,10 +2114,10 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F83">
-        <v>0.90476190476190399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2131,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2151,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F85">
-        <v>0.83333333333333304</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2171,10 +2174,10 @@
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>0.75728155339805803</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2191,7 +2194,7 @@
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -2211,10 +2214,10 @@
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0.73529411764705799</v>
+        <v>0.8928571428571429</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2231,7 +2234,7 @@
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -2251,10 +2254,10 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>0.67889908256880704</v>
+        <v>0.88095238095238093</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2271,10 +2274,10 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91">
-        <v>0.17525773195876199</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2291,10 +2294,10 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>0.81553398058252402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2311,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0.71764705882352897</v>
+        <v>0.72619047619047616</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2331,10 +2334,10 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>0.82352941176470495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -2351,10 +2354,10 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>0.47204968944099301</v>
+        <v>0.90476190476190477</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -2371,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>0.77064220183486198</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2391,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>0.72164948453608202</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2411,10 +2414,10 @@
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>0.998812012812202</v>
+        <v>0.75728155339805825</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2431,10 +2434,10 @@
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>0.57458014381824596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -2451,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>0.99589148261834304</v>
+        <v>0.73529411764705888</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2471,10 +2474,10 @@
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0.55169818981947105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2491,10 +2494,10 @@
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>0.99779956214626897</v>
+        <v>0.67889908256880738</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2511,10 +2514,10 @@
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>0.67425478429451002</v>
+        <v>0.17307692307692307</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2531,10 +2534,10 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F104">
-        <v>0.998812012812202</v>
+        <v>0.81553398058252424</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2551,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>0.57458014381824596</v>
+        <v>0.71764705882352942</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2571,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>0.99589148261834304</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2591,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>0.55169818981947105</v>
+        <v>0.46913580246913578</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2611,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>0.99779956214626897</v>
+        <v>0.77064220183486243</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2631,10 +2634,10 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>0.67425478429451002</v>
+        <v>0.67307692307692313</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2651,10 +2654,10 @@
         <v>1</v>
       </c>
       <c r="E110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F110">
-        <v>5.3822554621783701E-3</v>
+        <v>0.998812012812202</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2671,10 +2674,10 @@
         <v>1</v>
       </c>
       <c r="E111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F111">
-        <v>0.25661163044719099</v>
+        <v>0.57458014381824596</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
@@ -2691,10 +2694,10 @@
         <v>1</v>
       </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F112">
-        <v>1.9207946629261698E-2</v>
+        <v>0.99589148261834304</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2711,10 +2714,10 @@
         <v>1</v>
       </c>
       <c r="E113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F113">
-        <v>0.28891513559064702</v>
+        <v>0.55269213150822505</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2731,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="E114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F114">
-        <v>1.0898239503774301E-2</v>
+        <v>0.99779956214626897</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2751,10 +2754,10 @@
         <v>1</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F115">
-        <v>0.28175098927492098</v>
+        <v>0.67924808596300401</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2771,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F116">
-        <v>5.3822554621783701E-3</v>
+        <v>0.998812012812202</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2791,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F117">
-        <v>0.25661163044719099</v>
+        <v>0.57458014381824596</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
@@ -2811,10 +2814,10 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F118">
-        <v>1.9207946629261698E-2</v>
+        <v>0.99589148261834304</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
@@ -2831,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F119">
-        <v>0.28891513559064702</v>
+        <v>0.55269213150822505</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
@@ -2851,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F120">
-        <v>1.0898239503774301E-2</v>
+        <v>0.99779956214626897</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2871,14 +2874,253 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121">
+        <v>0.67924808596300401</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="s">
+        <v>19</v>
+      </c>
+      <c r="C122" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
         <v>14</v>
       </c>
-      <c r="F121">
-        <v>0.28175098927492098</v>
+      <c r="F122">
+        <v>5.3822554621783701E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="s">
+        <v>19</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>0.25661163044719099</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>24</v>
+      </c>
+      <c r="B124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124">
+        <v>1.9207946629261698E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>24</v>
+      </c>
+      <c r="B125" t="s">
+        <v>20</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>0.289265914544589</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>21</v>
+      </c>
+      <c r="C126" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>1.0898239503774301E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>21</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127">
+        <v>0.28455039890892603</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" t="b">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <v>5.3822554621783701E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" t="b">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <v>0.25661163044719099</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>24</v>
+      </c>
+      <c r="B130" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" t="b">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130">
+        <v>1.9207946629261698E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>24</v>
+      </c>
+      <c r="B131" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" t="b">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131">
+        <v>0.289265914544589</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" t="s">
+        <v>21</v>
+      </c>
+      <c r="C132" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" t="b">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132">
+        <v>1.0898239503774301E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" t="b">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133">
+        <v>0.28455039890892603</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F121" xr:uid="{7E272848-8386-4833-98B6-3AF417D6904B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2888,14 +3130,16 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.92857142857142805</v>
+        <v>0.9285714285714286</v>
       </c>
       <c r="F2">
-        <v>0.75728155339805803</v>
+        <v>0.75728155339805825</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,16 +3190,16 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.81553398058252402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,10 +3216,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.89285714285714202</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="F4">
-        <v>0.73529411764705799</v>
+        <v>0.73529411764705888</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -2986,16 +3230,16 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.82352941176470495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -3012,10 +3256,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.88095238095238004</v>
+        <v>0.88095238095238093</v>
       </c>
       <c r="F6">
-        <v>0.67889908256880704</v>
+        <v>0.67889908256880738</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -3026,16 +3270,16 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="D7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="F7">
-        <v>0.77064220183486198</v>
+        <v>0.17307692307692307</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -3046,64 +3290,64 @@
         <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.81553398058252424</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.72619047619047616</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.71764705882352942</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.202380952380952</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.17525773195876199</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -3112,30 +3356,30 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.72619047619047605</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="F11">
-        <v>0.71764705882352897</v>
+        <v>0.46913580246913578</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.90476190476190399</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.47204968944099301</v>
+        <v>0.77064220183486243</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -3152,10 +3396,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.83333333333333304</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="F13">
-        <v>0.72164948453608202</v>
+        <v>0.67307692307692313</v>
       </c>
     </row>
   </sheetData>
@@ -3167,8 +3411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5492898A-5D62-4610-8B32-68180B4D1321}">
   <dimension ref="A1:C460"/>
   <sheetViews>
-    <sheetView topLeftCell="A446" workbookViewId="0">
-      <selection activeCell="F456" sqref="F456"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection sqref="A1:C460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3191,843 +3435,843 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.48132780082987497</v>
+        <v>0.62033195020746801</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.54918032786885196</v>
+        <v>0.66393442622950805</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4">
-        <v>0.57575757575757502</v>
+        <v>0.58441558441558406</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.38095238095237999</v>
+        <v>0.34210526315789402</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6">
-        <v>0.93606138107416803</v>
+        <v>0.118421052631578</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>0.80882352941176405</v>
+        <v>0.40476190476190399</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0.75265017667844503</v>
+        <v>0.96419437340153402</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
       <c r="C9">
-        <v>0.68442622950819598</v>
+        <v>0.85294117647058798</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.38888888888888801</v>
+        <v>0.100313479623824</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
       <c r="C11">
-        <v>0.155147058823529</v>
+        <v>0.81625441696112999</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12">
-        <v>0.14522821576763401</v>
+        <v>0.72540983606557297</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
       <c r="C13">
-        <v>0.70491803278688503</v>
+        <v>0.45555555555555499</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
       <c r="C14">
-        <v>0.57575757575757502</v>
+        <v>0.15735294117647</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="C15">
-        <v>0.81739130434782603</v>
+        <v>0.17842323651452199</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="C16">
-        <v>0.30701754385964902</v>
+        <v>0.70491803278688503</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>3</v>
       </c>
       <c r="C17">
-        <v>0.48</v>
+        <v>0.60173160173160101</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>3</v>
       </c>
       <c r="C18">
-        <v>0.414201183431952</v>
+        <v>0.860869565217391</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>3</v>
       </c>
       <c r="C19">
-        <v>0.48688046647230299</v>
+        <v>0.38596491228070101</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20">
-        <v>0.74921630094043801</v>
+        <v>0.86666666666666603</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21">
-        <v>0.40163934426229497</v>
+        <v>0.47928994082840198</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22">
-        <v>0.28198433420365498</v>
+        <v>0.185</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>3</v>
       </c>
       <c r="C23">
-        <v>0.88629737609329395</v>
+        <v>0.67638483965014495</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
       </c>
       <c r="C24">
-        <v>0.16546762589927999</v>
+        <v>0.76489028213166099</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>3</v>
       </c>
       <c r="C25">
-        <v>0.48132780082987497</v>
+        <v>0.22772277227722701</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26">
-        <v>0.89754098360655699</v>
+        <v>0.43852459016393402</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27">
-        <v>0.88311688311688297</v>
+        <v>0.37597911227154002</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>0.18421052631578899</v>
+        <v>0.91253644314868798</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>0.98214285714285698</v>
+        <v>0.136170212765957</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
       </c>
       <c r="C30">
-        <v>0.93606138107416803</v>
+        <v>0.17625899280575499</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31">
-        <v>0.69938650306748396</v>
+        <v>0.54149377593360903</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
       </c>
       <c r="C32">
-        <v>0.22454308093994699</v>
+        <v>0.95901639344262202</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
         <v>3</v>
       </c>
       <c r="C33">
-        <v>0.41399416909620901</v>
+        <v>0.88311688311688297</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B34" t="s">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>0.41702127659574401</v>
+        <v>0.197368421052631</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>3</v>
       </c>
       <c r="C35">
-        <v>0.597122302158273</v>
+        <v>0.217105263157894</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>3</v>
       </c>
       <c r="C36">
-        <v>0.89834024896265496</v>
+        <v>0.98809523809523803</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>0.26639344262295001</v>
+        <v>0.94117647058823495</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>0.53679653679653605</v>
+        <v>0.26645768025078298</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>0.89912280701754299</v>
+        <v>0.40924092409240898</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>0.37280701754385898</v>
+        <v>0.20901639344262199</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B41" t="s">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>0.9</v>
+        <v>0.78834355828220803</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>0.54166666666666596</v>
+        <v>0.240208877284595</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>0.74921630094043801</v>
+        <v>0.41399416909620901</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>3</v>
       </c>
       <c r="C44">
-        <v>0.94389438943894299</v>
+        <v>0.45106382978723403</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B45" t="s">
         <v>3</v>
       </c>
       <c r="C45">
-        <v>0.97540983606557297</v>
+        <v>0.69064748201438797</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
         <v>3</v>
       </c>
       <c r="C46">
-        <v>0.60574412532637001</v>
+        <v>0.92531120331950201</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>3</v>
       </c>
       <c r="C47">
-        <v>0.85531914893617</v>
+        <v>0.340163934426229</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>3</v>
       </c>
       <c r="C48">
-        <v>0.58450704225352101</v>
+        <v>0.56709956709956699</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B49" t="s">
         <v>3</v>
       </c>
       <c r="C49">
-        <v>0.47835051546391699</v>
+        <v>0.96929824561403499</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50">
-        <v>0.89754098360655699</v>
+        <v>0.390350877192982</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>3</v>
       </c>
       <c r="C51">
-        <v>0.40434782608695602</v>
+        <v>0.94666666666666599</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>3</v>
       </c>
       <c r="C52">
-        <v>0.18421052631578899</v>
+        <v>0.58333333333333304</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
         <v>3</v>
       </c>
       <c r="C53">
-        <v>0.48</v>
+        <v>0.14066496163682801</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B54" t="s">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>0.35891089108910801</v>
+        <v>0.78056426332288398</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>3</v>
       </c>
       <c r="C55">
-        <v>0.26822157434402299</v>
+        <v>0.97689768976897695</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
         <v>3</v>
       </c>
       <c r="C56">
-        <v>0.74921630094043801</v>
+        <v>0.97745901639344202</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B57" t="s">
         <v>3</v>
       </c>
       <c r="C57">
-        <v>0.29098360655737698</v>
+        <v>0.74151436031331597</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>0.84969325153374198</v>
+        <v>0.88510638297872302</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>0.87050359712230196</v>
+        <v>0.602112676056338</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>3</v>
       </c>
       <c r="C60">
-        <v>0.72535211267605604</v>
+        <v>0.50721649484536002</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>0.135135135135135</v>
+        <v>0.97950819672131095</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B62" t="s">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>0.38202247191011202</v>
+        <v>0.26839826839826803</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.65652173913043399</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.22149122807017499</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>1</v>
+        <v>0.913333333333333</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C66">
-        <v>1</v>
+        <v>0.34319526627218899</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0.38613861386138598</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C68">
-        <v>1</v>
+        <v>0.32361516034985399</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.78056426332288398</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.145214521452145</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.30737704918032699</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.92638036809815905</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>0.88489208633093497</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0.21126760563380201</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.80985915492957705</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C76">
-        <v>0.998529411764705</v>
+        <v>0.14054054054053999</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.398876404494382</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B78" t="s">
         <v>23</v>
@@ -4038,7 +4282,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B79" t="s">
         <v>23</v>
@@ -4049,7 +4293,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B80" t="s">
         <v>23</v>
@@ -4060,7 +4304,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B81" t="s">
         <v>23</v>
@@ -4071,7 +4315,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B82" t="s">
         <v>23</v>
@@ -4082,7 +4326,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
         <v>23</v>
@@ -4093,7 +4337,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B84" t="s">
         <v>23</v>
@@ -4104,7 +4348,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B85" t="s">
         <v>23</v>
@@ -4115,7 +4359,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B86" t="s">
         <v>23</v>
@@ -4126,18 +4370,18 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B87" t="s">
         <v>23</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>1.0470219435736601</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B88" t="s">
         <v>23</v>
@@ -4148,7 +4392,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B89" t="s">
         <v>23</v>
@@ -4159,7 +4403,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B90" t="s">
         <v>23</v>
@@ -4170,18 +4414,18 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B91" t="s">
         <v>23</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.998529411764705</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B92" t="s">
         <v>23</v>
@@ -4192,7 +4436,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B93" t="s">
         <v>23</v>
@@ -4203,7 +4447,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B94" t="s">
         <v>23</v>
@@ -4214,7 +4458,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B95" t="s">
         <v>23</v>
@@ -4225,7 +4469,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B96" t="s">
         <v>23</v>
@@ -4236,7 +4480,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B97" t="s">
         <v>23</v>
@@ -4247,7 +4491,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B98" t="s">
         <v>23</v>
@@ -4258,18 +4502,18 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B99" t="s">
         <v>23</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B100" t="s">
         <v>23</v>
@@ -4280,7 +4524,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B101" t="s">
         <v>23</v>
@@ -4291,7 +4535,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B102" t="s">
         <v>23</v>
@@ -4302,7 +4546,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
@@ -4313,7 +4557,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B104" t="s">
         <v>23</v>
@@ -4324,7 +4568,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B105" t="s">
         <v>23</v>
@@ -4335,7 +4579,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
         <v>23</v>
@@ -4346,7 +4590,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B107" t="s">
         <v>23</v>
@@ -4357,7 +4601,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B108" t="s">
         <v>23</v>
@@ -4368,7 +4612,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B109" t="s">
         <v>23</v>
@@ -4379,7 +4623,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B110" t="s">
         <v>23</v>
@@ -4390,7 +4634,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B111" t="s">
         <v>23</v>
@@ -4401,7 +4645,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B112" t="s">
         <v>23</v>
@@ -4412,7 +4656,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B113" t="s">
         <v>23</v>
@@ -4423,7 +4667,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
         <v>23</v>
@@ -4434,18 +4678,18 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
         <v>23</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>0.93606138107416803</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
         <v>23</v>
@@ -4456,7 +4700,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
         <v>23</v>
@@ -4467,7 +4711,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
         <v>23</v>
@@ -4478,7 +4722,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
         <v>23</v>
@@ -4489,7 +4733,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
         <v>23</v>
@@ -4500,7 +4744,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
         <v>23</v>
@@ -4511,7 +4755,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
         <v>23</v>
@@ -4522,7 +4766,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
         <v>23</v>
@@ -4533,7 +4777,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
         <v>23</v>
@@ -4544,29 +4788,29 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
         <v>23</v>
       </c>
       <c r="C125">
-        <v>0.97887323943661897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B126" t="s">
         <v>23</v>
       </c>
       <c r="C126">
-        <v>0.99381443298968997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B127" t="s">
         <v>23</v>
@@ -4577,7 +4821,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B128" t="s">
         <v>23</v>
@@ -4588,7 +4832,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B129" t="s">
         <v>23</v>
@@ -4599,7 +4843,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B130" t="s">
         <v>23</v>
@@ -4610,7 +4854,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B131" t="s">
         <v>23</v>
@@ -4621,29 +4865,29 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B132" t="s">
         <v>23</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0.93606138107416803</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B133" t="s">
         <v>23</v>
       </c>
       <c r="C133">
-        <v>0.99009900990098998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B134" t="s">
         <v>23</v>
@@ -4654,7 +4898,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B135" t="s">
         <v>23</v>
@@ -4665,7 +4909,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B136" t="s">
         <v>23</v>
@@ -4676,18 +4920,18 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B137" t="s">
         <v>23</v>
       </c>
       <c r="C137">
-        <v>0.97540983606557297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
         <v>23</v>
@@ -4698,7 +4942,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B139" t="s">
         <v>23</v>
@@ -4709,29 +4953,29 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B140" t="s">
         <v>23</v>
       </c>
       <c r="C140">
-        <v>1</v>
+        <v>0.97887323943661897</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B141" t="s">
         <v>23</v>
       </c>
       <c r="C141">
-        <v>1</v>
+        <v>0.99381443298968997</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B142" t="s">
         <v>23</v>
@@ -4742,7 +4986,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B143" t="s">
         <v>23</v>
@@ -4753,7 +4997,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B144" t="s">
         <v>23</v>
@@ -4764,7 +5008,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B145" t="s">
         <v>23</v>
@@ -4775,13 +5019,13 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="B146" t="s">
         <v>23</v>
       </c>
       <c r="C146">
-        <v>0.96348314606741503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -4789,10 +5033,10 @@
         <v>24</v>
       </c>
       <c r="B147" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C147">
-        <v>0.62033195020746801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -4800,10 +5044,10 @@
         <v>24</v>
       </c>
       <c r="B148" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C148">
-        <v>0.66393442622950805</v>
+        <v>0.89603960396039595</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -4811,10 +5055,10 @@
         <v>24</v>
       </c>
       <c r="B149" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C149">
-        <v>0.58441558441558406</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -4822,10 +5066,10 @@
         <v>24</v>
       </c>
       <c r="B150" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C150">
-        <v>0.34210526315789402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -4833,10 +5077,10 @@
         <v>24</v>
       </c>
       <c r="B151" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C151">
-        <v>0.118421052631578</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -4844,10 +5088,10 @@
         <v>24</v>
       </c>
       <c r="B152" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C152">
-        <v>0.40476190476190399</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -4855,10 +5099,10 @@
         <v>24</v>
       </c>
       <c r="B153" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C153">
-        <v>0.96419437340153402</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -4866,10 +5110,10 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C154">
-        <v>0.85294117647058798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -4877,10 +5121,10 @@
         <v>24</v>
       </c>
       <c r="B155" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C155">
-        <v>0.100313479623824</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -4888,10 +5132,10 @@
         <v>24</v>
       </c>
       <c r="B156" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C156">
-        <v>0.81625441696112999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -4899,10 +5143,10 @@
         <v>24</v>
       </c>
       <c r="B157" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C157">
-        <v>0.72540983606557297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -4910,10 +5154,10 @@
         <v>24</v>
       </c>
       <c r="B158" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C158">
-        <v>0.45555555555555499</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -4921,10 +5165,10 @@
         <v>24</v>
       </c>
       <c r="B159" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C159">
-        <v>0.15735294117647</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -4932,10 +5176,10 @@
         <v>24</v>
       </c>
       <c r="B160" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C160">
-        <v>0.17842323651452199</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -4943,689 +5187,689 @@
         <v>24</v>
       </c>
       <c r="B161" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C161">
-        <v>0.70491803278688503</v>
+        <v>0.96348314606741503</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B162" t="s">
         <v>3</v>
       </c>
       <c r="C162">
-        <v>0.60173160173160101</v>
+        <v>0.93606138107416803</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B163" t="s">
         <v>3</v>
       </c>
       <c r="C163">
-        <v>0.860869565217391</v>
+        <v>0.68442622950819598</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B164" t="s">
         <v>3</v>
       </c>
       <c r="C164">
-        <v>0.38596491228070101</v>
+        <v>0.80882352941176405</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B165" t="s">
         <v>3</v>
       </c>
       <c r="C165">
-        <v>0.86666666666666603</v>
+        <v>0.45850622406639002</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B166" t="s">
         <v>3</v>
       </c>
       <c r="C166">
-        <v>0.47928994082840198</v>
+        <v>0.75265017667844503</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B167" t="s">
         <v>3</v>
       </c>
       <c r="C167">
-        <v>0.185</v>
+        <v>0.155147058823529</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B168" t="s">
         <v>3</v>
       </c>
       <c r="C168">
-        <v>0.67638483965014495</v>
+        <v>0.38888888888888801</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
         <v>3</v>
       </c>
       <c r="C169">
-        <v>0.76489028213166099</v>
+        <v>0.57575757575757502</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B170" t="s">
         <v>3</v>
       </c>
       <c r="C170">
-        <v>0.22772277227722701</v>
+        <v>0.483606557377049</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B171" t="s">
         <v>3</v>
       </c>
       <c r="C171">
-        <v>0.43852459016393402</v>
+        <v>0.179824561403508</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B172" t="s">
         <v>3</v>
       </c>
       <c r="C172">
-        <v>0.37597911227154002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
         <v>3</v>
       </c>
       <c r="C173">
-        <v>0.91253644314868798</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B174" t="s">
         <v>3</v>
       </c>
       <c r="C174">
-        <v>0.136170212765957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
         <v>3</v>
       </c>
       <c r="C175">
-        <v>0.17625899280575499</v>
+        <v>0.70553935860058303</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
         <v>3</v>
       </c>
       <c r="C176">
-        <v>0.54149377593360903</v>
+        <v>0.74921630094043801</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>0.95901639344262202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B178" t="s">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>0.88311688311688297</v>
+        <v>0.40368852459016302</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B179" t="s">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>0.197368421052631</v>
+        <v>0.70491803278688503</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B180" t="s">
         <v>3</v>
       </c>
       <c r="C180">
-        <v>0.217105263157894</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B181" t="s">
         <v>3</v>
       </c>
       <c r="C181">
-        <v>0.98809523809523803</v>
+        <v>0.39425587467362899</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B182" t="s">
         <v>3</v>
       </c>
       <c r="C182">
-        <v>0.94117647058823495</v>
+        <v>0.57575757575757502</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B183" t="s">
         <v>3</v>
       </c>
       <c r="C183">
-        <v>0.26645768025078298</v>
+        <v>0.182572614107883</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B184" t="s">
         <v>3</v>
       </c>
       <c r="C184">
-        <v>0.40924092409240898</v>
+        <v>0.21249999999999999</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
         <v>3</v>
       </c>
       <c r="C185">
-        <v>0.20901639344262199</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B186" t="s">
         <v>3</v>
       </c>
       <c r="C186">
-        <v>0.78834355828220803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>3</v>
       </c>
       <c r="C187">
-        <v>0.240208877284595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B188" t="s">
         <v>3</v>
       </c>
       <c r="C188">
-        <v>0.41399416909620901</v>
+        <v>0.69938650306748396</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B189" t="s">
         <v>3</v>
       </c>
       <c r="C189">
-        <v>0.45106382978723403</v>
+        <v>0.45850622406639002</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
         <v>3</v>
       </c>
       <c r="C190">
-        <v>0.61510791366906403</v>
+        <v>0.89754098360655699</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
         <v>3</v>
       </c>
       <c r="C191">
-        <v>0.92531120331950201</v>
+        <v>0.88311688311688297</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B192" t="s">
         <v>3</v>
       </c>
       <c r="C192">
-        <v>0.340163934426229</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B193" t="s">
         <v>3</v>
       </c>
       <c r="C193">
-        <v>0.56709956709956699</v>
+        <v>0.597122302158273</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B194" t="s">
         <v>3</v>
       </c>
       <c r="C194">
-        <v>0.96929824561403499</v>
+        <v>0.46064139941690901</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B195" t="s">
         <v>3</v>
       </c>
       <c r="C195">
-        <v>0.390350877192982</v>
+        <v>0.39425587467362899</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B196" t="s">
         <v>3</v>
       </c>
       <c r="C196">
-        <v>0.94666666666666599</v>
+        <v>0.31347962382445099</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B197" t="s">
         <v>3</v>
       </c>
       <c r="C197">
-        <v>0.58333333333333304</v>
+        <v>0.41702127659574401</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B198" t="s">
         <v>3</v>
       </c>
       <c r="C198">
-        <v>0.14066496163682801</v>
+        <v>0.179824561403508</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B199" t="s">
         <v>3</v>
       </c>
       <c r="C199">
-        <v>0.78056426332288398</v>
+        <v>0.15778688524590101</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B200" t="s">
         <v>3</v>
       </c>
       <c r="C200">
-        <v>0.97689768976897695</v>
+        <v>0.97540983606557297</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B201" t="s">
         <v>3</v>
       </c>
       <c r="C201">
-        <v>0.97745901639344202</v>
+        <v>0.93360995850622397</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B202" t="s">
         <v>3</v>
       </c>
       <c r="C202">
-        <v>0.74151436031331597</v>
+        <v>0.75618073316282997</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B203" t="s">
         <v>3</v>
       </c>
       <c r="C203">
-        <v>0.88510638297872302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B204" t="s">
         <v>3</v>
       </c>
       <c r="C204">
-        <v>0.602112676056338</v>
+        <v>0.80156657963446398</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B205" t="s">
         <v>3</v>
       </c>
       <c r="C205">
-        <v>0.50721649484536002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B206" t="s">
         <v>3</v>
       </c>
       <c r="C206">
-        <v>0.97950819672131095</v>
+        <v>0.74921630094043801</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B207" t="s">
         <v>3</v>
       </c>
       <c r="C207">
-        <v>0.26839826839826803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B208" t="s">
         <v>3</v>
       </c>
       <c r="C208">
-        <v>0.65652173913043399</v>
+        <v>0.85531914893617</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B209" t="s">
         <v>3</v>
       </c>
       <c r="C209">
-        <v>0.22149122807017499</v>
+        <v>0.37280701754385898</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B210" t="s">
         <v>3</v>
       </c>
       <c r="C210">
-        <v>0.913333333333333</v>
+        <v>0.58450704225352101</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
         <v>3</v>
       </c>
       <c r="C211">
-        <v>0.34319526627218899</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>3</v>
       </c>
       <c r="C212">
-        <v>0.38613861386138598</v>
+        <v>0.57575757575757502</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B213" t="s">
         <v>3</v>
       </c>
       <c r="C213">
-        <v>0.32361516034985399</v>
+        <v>0.64285714285714202</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
         <v>3</v>
       </c>
       <c r="C214">
-        <v>0.78056426332288398</v>
+        <v>0.26639344262295001</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B215" t="s">
         <v>3</v>
       </c>
       <c r="C215">
-        <v>0.145214521452145</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B216" t="s">
         <v>3</v>
       </c>
       <c r="C216">
-        <v>0.30737704918032699</v>
+        <v>0.96083550913838101</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B217" t="s">
         <v>3</v>
       </c>
       <c r="C217">
-        <v>0.92638036809815905</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>3</v>
       </c>
       <c r="C218">
-        <v>0.88489208633093497</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B219" t="s">
         <v>3</v>
       </c>
       <c r="C219">
-        <v>0.21126760563380201</v>
+        <v>0.90647482014388403</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B220" t="s">
         <v>3</v>
       </c>
       <c r="C220">
-        <v>0.80985915492957705</v>
+        <v>0.74921630094043801</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B221" t="s">
         <v>3</v>
       </c>
       <c r="C221">
-        <v>0.14054054054053999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B222" t="s">
         <v>3</v>
       </c>
       <c r="C222">
-        <v>0.398876404494382</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B223" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C223">
         <v>1</v>
@@ -5633,43 +5877,43 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B224" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C224">
-        <v>1</v>
+        <v>0.455670103092783</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B225" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C225">
-        <v>1</v>
+        <v>0.89754098360655699</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B226" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>0.40368852459016302</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B227" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -5677,62 +5921,62 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B228" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C228">
-        <v>1</v>
+        <v>0.35891089108910801</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B229" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C229">
-        <v>1</v>
+        <v>0.36235955056179697</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B230" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C230">
-        <v>1</v>
+        <v>0.26822157434402299</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B231" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C231">
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B232" t="s">
         <v>23</v>
       </c>
       <c r="C232">
-        <v>1.0470219435736601</v>
+        <v>0.998529411764705</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
         <v>23</v>
@@ -5743,7 +5987,7 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B234" t="s">
         <v>23</v>
@@ -5754,7 +5998,7 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B235" t="s">
         <v>23</v>
@@ -5765,18 +6009,18 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
         <v>23</v>
       </c>
       <c r="C236">
-        <v>0.998529411764705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B237" t="s">
         <v>23</v>
@@ -5787,7 +6031,7 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B238" t="s">
         <v>23</v>
@@ -5798,7 +6042,7 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B239" t="s">
         <v>23</v>
@@ -5809,7 +6053,7 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B240" t="s">
         <v>23</v>
@@ -5820,7 +6064,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B241" t="s">
         <v>23</v>
@@ -5831,7 +6075,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B242" t="s">
         <v>23</v>
@@ -5842,29 +6086,29 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B243" t="s">
         <v>23</v>
       </c>
       <c r="C243">
-        <v>1</v>
+        <v>1.0470219435736601</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B244" t="s">
         <v>23</v>
       </c>
       <c r="C244">
-        <v>0.90500000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B245" t="s">
         <v>23</v>
@@ -5875,7 +6119,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B246" t="s">
         <v>23</v>
@@ -5886,18 +6130,18 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B247" t="s">
         <v>23</v>
       </c>
       <c r="C247">
-        <v>1</v>
+        <v>0.96083550913838101</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B248" t="s">
         <v>23</v>
@@ -5908,7 +6152,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B249" t="s">
         <v>23</v>
@@ -5919,7 +6163,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B250" t="s">
         <v>23</v>
@@ -5930,7 +6174,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B251" t="s">
         <v>23</v>
@@ -5941,7 +6185,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B252" t="s">
         <v>23</v>
@@ -5952,7 +6196,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B253" t="s">
         <v>23</v>
@@ -5963,7 +6207,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B254" t="s">
         <v>23</v>
@@ -5974,7 +6218,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B255" t="s">
         <v>23</v>
@@ -5985,7 +6229,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B256" t="s">
         <v>23</v>
@@ -5996,7 +6240,7 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B257" t="s">
         <v>23</v>
@@ -6007,7 +6251,7 @@
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B258" t="s">
         <v>23</v>
@@ -6018,7 +6262,7 @@
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B259" t="s">
         <v>23</v>
@@ -6029,18 +6273,18 @@
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B260" t="s">
         <v>23</v>
       </c>
       <c r="C260">
-        <v>0.93606138107416803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B261" t="s">
         <v>23</v>
@@ -6051,18 +6295,18 @@
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B262" t="s">
         <v>23</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>0.96083550913838101</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B263" t="s">
         <v>23</v>
@@ -6073,7 +6317,7 @@
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B264" t="s">
         <v>23</v>
@@ -6084,7 +6328,7 @@
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B265" t="s">
         <v>23</v>
@@ -6095,7 +6339,7 @@
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B266" t="s">
         <v>23</v>
@@ -6106,7 +6350,7 @@
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B267" t="s">
         <v>23</v>
@@ -6117,7 +6361,7 @@
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B268" t="s">
         <v>23</v>
@@ -6128,7 +6372,7 @@
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B269" t="s">
         <v>23</v>
@@ -6139,7 +6383,7 @@
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B270" t="s">
         <v>23</v>
@@ -6150,7 +6394,7 @@
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B271" t="s">
         <v>23</v>
@@ -6161,7 +6405,7 @@
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B272" t="s">
         <v>23</v>
@@ -6172,7 +6416,7 @@
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B273" t="s">
         <v>23</v>
@@ -6183,7 +6427,7 @@
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B274" t="s">
         <v>23</v>
@@ -6194,7 +6438,7 @@
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B275" t="s">
         <v>23</v>
@@ -6205,7 +6449,7 @@
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B276" t="s">
         <v>23</v>
@@ -6216,18 +6460,18 @@
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B277" t="s">
         <v>23</v>
       </c>
       <c r="C277">
-        <v>0.93606138107416803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B278" t="s">
         <v>23</v>
@@ -6238,18 +6482,18 @@
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B279" t="s">
         <v>23</v>
       </c>
       <c r="C279">
-        <v>1</v>
+        <v>0.96083550913838101</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B280" t="s">
         <v>23</v>
@@ -6260,18 +6504,18 @@
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B281" t="s">
         <v>23</v>
       </c>
       <c r="C281">
-        <v>1</v>
+        <v>0.97887323943661897</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B282" t="s">
         <v>23</v>
@@ -6282,7 +6526,7 @@
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B283" t="s">
         <v>23</v>
@@ -6293,7 +6537,7 @@
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B284" t="s">
         <v>23</v>
@@ -6304,29 +6548,29 @@
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B285" t="s">
         <v>23</v>
       </c>
       <c r="C285">
-        <v>0.97887323943661897</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B286" t="s">
         <v>23</v>
       </c>
       <c r="C286">
-        <v>0.99381443298968997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B287" t="s">
         <v>23</v>
@@ -6337,7 +6581,7 @@
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B288" t="s">
         <v>23</v>
@@ -6348,7 +6592,7 @@
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B289" t="s">
         <v>23</v>
@@ -6359,7 +6603,7 @@
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B290" t="s">
         <v>23</v>
@@ -6370,7 +6614,7 @@
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B291" t="s">
         <v>23</v>
@@ -6381,7 +6625,7 @@
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B292" t="s">
         <v>23</v>
@@ -6392,18 +6636,18 @@
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B293" t="s">
         <v>23</v>
       </c>
       <c r="C293">
-        <v>0.89603960396039595</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B294" t="s">
         <v>23</v>
@@ -6414,18 +6658,18 @@
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B295" t="s">
         <v>23</v>
       </c>
       <c r="C295">
-        <v>1</v>
+        <v>0.99009900990098998</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B296" t="s">
         <v>23</v>
@@ -6436,29 +6680,29 @@
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B297" t="s">
         <v>23</v>
       </c>
       <c r="C297">
-        <v>1</v>
+        <v>0.96083550913838101</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B298" t="s">
         <v>23</v>
       </c>
       <c r="C298">
-        <v>1</v>
+        <v>0.96348314606741503</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B299" t="s">
         <v>23</v>
@@ -6469,7 +6713,7 @@
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B300" t="s">
         <v>23</v>
@@ -6480,7 +6724,7 @@
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
         <v>23</v>
@@ -6491,7 +6735,7 @@
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B302" t="s">
         <v>23</v>
@@ -6502,7 +6746,7 @@
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B303" t="s">
         <v>23</v>
@@ -6513,7 +6757,7 @@
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B304" t="s">
         <v>23</v>
@@ -6524,7 +6768,7 @@
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B305" t="s">
         <v>23</v>
@@ -6535,13 +6779,13 @@
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="B306" t="s">
         <v>23</v>
       </c>
       <c r="C306">
-        <v>0.96348314606741503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.3">
@@ -6552,7 +6796,7 @@
         <v>23</v>
       </c>
       <c r="C307">
-        <v>0.998529411764705</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.3">
@@ -6596,7 +6840,7 @@
         <v>23</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>0.99381443298968997</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.3">
@@ -6645,678 +6889,678 @@
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B316" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C316">
-        <v>1</v>
+        <v>0.48132780082987497</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B317" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>0.54918032786885196</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B318" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C318">
-        <v>1.0470219435736601</v>
+        <v>0.57575757575757502</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B319" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C319">
-        <v>1</v>
+        <v>0.38095238095237999</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B320" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C320">
-        <v>1</v>
+        <v>0.93606138107416803</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B321" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>0.80882352941176405</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B322" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C322">
-        <v>0.96083550913838101</v>
+        <v>0.75265017667844503</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B323" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C323">
-        <v>1</v>
+        <v>0.68442622950819598</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B324" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C324">
-        <v>1</v>
+        <v>0.38888888888888801</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B325" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C325">
-        <v>1</v>
+        <v>0.155147058823529</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B326" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>0.14522821576763401</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B327" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C327">
-        <v>1</v>
+        <v>0.70491803278688503</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B328" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C328">
-        <v>1</v>
+        <v>0.57575757575757502</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B329" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C329">
-        <v>1</v>
+        <v>0.81739130434782603</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B330" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C330">
-        <v>1</v>
+        <v>0.30701754385964902</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B331" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C331">
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B332" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C332">
-        <v>1</v>
+        <v>0.414201183431952</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B333" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C333">
-        <v>1</v>
+        <v>0.48688046647230299</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B334" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C334">
-        <v>1</v>
+        <v>0.74921630094043801</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B335" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C335">
-        <v>1</v>
+        <v>0.40163934426229497</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B336" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C336">
-        <v>1</v>
+        <v>0.28198433420365498</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B337" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C337">
-        <v>0.96083550913838101</v>
+        <v>0.88629737609329395</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B338" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C338">
-        <v>1</v>
+        <v>0.16546762589927999</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B339" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C339">
-        <v>1</v>
+        <v>0.48132780082987497</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B340" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C340">
-        <v>1</v>
+        <v>0.89754098360655699</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B341" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C341">
-        <v>1</v>
+        <v>0.88311688311688297</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B342" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C342">
-        <v>1</v>
+        <v>0.18421052631578899</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B343" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C343">
-        <v>1</v>
+        <v>0.98214285714285698</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B344" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C344">
-        <v>1</v>
+        <v>0.93606138107416803</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B345" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C345">
-        <v>1</v>
+        <v>0.69938650306748396</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B346" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C346">
-        <v>1</v>
+        <v>0.22454308093994699</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B347" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C347">
-        <v>1</v>
+        <v>0.41399416909620901</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B348" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C348">
-        <v>1</v>
+        <v>0.41702127659574401</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B349" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C349">
-        <v>1</v>
+        <v>0.597122302158273</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B350" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C350">
-        <v>1</v>
+        <v>0.89834024896265496</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B351" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C351">
-        <v>1</v>
+        <v>0.26639344262295001</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B352" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C352">
-        <v>1</v>
+        <v>0.53679653679653605</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B353" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C353">
-        <v>1</v>
+        <v>0.89912280701754299</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B354" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C354">
-        <v>0.96083550913838101</v>
+        <v>0.37280701754385898</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B355" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C355">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B356" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C356">
-        <v>0.97887323943661897</v>
+        <v>0.54166666666666596</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B357" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C357">
-        <v>1</v>
+        <v>0.74921630094043801</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B358" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C358">
-        <v>1</v>
+        <v>0.94389438943894299</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B359" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C359">
-        <v>1</v>
+        <v>0.97540983606557297</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B360" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C360">
-        <v>1</v>
+        <v>0.60574412532637001</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B361" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C361">
-        <v>1</v>
+        <v>0.85531914893617</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B362" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C362">
-        <v>1</v>
+        <v>0.58450704225352101</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B363" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C363">
-        <v>1</v>
+        <v>0.47835051546391699</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B364" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C364">
-        <v>1</v>
+        <v>0.89754098360655699</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B365" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C365">
-        <v>1</v>
+        <v>0.40434782608695602</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B366" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C366">
-        <v>1</v>
+        <v>0.18421052631578899</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B367" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C367">
-        <v>1</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B368" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C368">
-        <v>1</v>
+        <v>0.35891089108910801</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B369" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C369">
-        <v>1</v>
+        <v>0.26822157434402299</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B370" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C370">
-        <v>0.99009900990098998</v>
+        <v>0.74921630094043801</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B371" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C371">
-        <v>1</v>
+        <v>0.29098360655737698</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B372" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C372">
-        <v>0.96083550913838101</v>
+        <v>0.84969325153374198</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B373" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C373">
-        <v>0.96348314606741503</v>
+        <v>0.87050359712230196</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B374" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C374">
-        <v>1</v>
+        <v>0.72535211267605604</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B375" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C375">
-        <v>1</v>
+        <v>0.135135135135135</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B376" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C376">
-        <v>1</v>
+        <v>0.38202247191011202</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B377" t="s">
         <v>23</v>
@@ -7327,7 +7571,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B378" t="s">
         <v>23</v>
@@ -7338,7 +7582,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B379" t="s">
         <v>23</v>
@@ -7349,7 +7593,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B380" t="s">
         <v>23</v>
@@ -7360,7 +7604,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B381" t="s">
         <v>23</v>
@@ -7371,7 +7615,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B382" t="s">
         <v>23</v>
@@ -7382,7 +7626,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B383" t="s">
         <v>23</v>
@@ -7393,7 +7637,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B384" t="s">
         <v>23</v>
@@ -7404,7 +7648,7 @@
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B385" t="s">
         <v>23</v>
@@ -7415,18 +7659,18 @@
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B386" t="s">
         <v>23</v>
       </c>
       <c r="C386">
-        <v>0.99381443298968997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B387" t="s">
         <v>23</v>
@@ -7437,7 +7681,7 @@
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B388" t="s">
         <v>23</v>
@@ -7448,7 +7692,7 @@
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B389" t="s">
         <v>23</v>
@@ -7459,131 +7703,131 @@
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B390" t="s">
         <v>23</v>
       </c>
       <c r="C390">
-        <v>1</v>
+        <v>0.998529411764705</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B391" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C391">
-        <v>0.93606138107416803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B392" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C392">
-        <v>0.68442622950819598</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B393" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C393">
-        <v>0.80882352941176405</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B394" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C394">
-        <v>0.45850622406639002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B395" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C395">
-        <v>0.75265017667844503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B396" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C396">
-        <v>0.155147058823529</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B397" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C397">
-        <v>0.38888888888888801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B398" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C398">
-        <v>0.57575757575757502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B399" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C399">
-        <v>0.483606557377049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B400" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C400">
-        <v>0.179824561403508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B401" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C401">
         <v>1</v>
@@ -7591,10 +7835,10 @@
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B402" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C402">
         <v>1</v>
@@ -7602,10 +7846,10 @@
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B403" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C403">
         <v>1</v>
@@ -7613,32 +7857,32 @@
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B404" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C404">
-        <v>0.70553935860058303</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B405" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C405">
-        <v>0.74921630094043801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B406" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C406">
         <v>1</v>
@@ -7646,32 +7890,32 @@
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B407" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C407">
-        <v>0.40368852459016302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B408" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C408">
-        <v>0.70491803278688503</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B409" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C409">
         <v>1</v>
@@ -7679,76 +7923,76 @@
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B410" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C410">
-        <v>0.39425587467362899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B411" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C411">
-        <v>0.57575757575757502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B412" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C412">
-        <v>0.182572614107883</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B413" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C413">
-        <v>0.21249999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B414" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C414">
-        <v>0.48</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B415" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C415">
-        <v>0.703324808184143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B416" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C416">
         <v>1</v>
@@ -7756,54 +8000,54 @@
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B417" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C417">
-        <v>0.69938650306748396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B418" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C418">
-        <v>0.45850622406639002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B419" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C419">
-        <v>0.89754098360655699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B420" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C420">
-        <v>0.88311688311688297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B421" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C421">
         <v>1</v>
@@ -7811,120 +8055,120 @@
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B422" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C422">
-        <v>0.597122302158273</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B423" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C423">
-        <v>0.46064139941690901</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B424" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C424">
-        <v>0.39425587467362899</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B425" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C425">
-        <v>0.31347962382445099</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B426" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C426">
-        <v>0.41702127659574401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B427" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C427">
-        <v>0.179824561403508</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B428" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C428">
-        <v>0.15778688524590101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B429" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C429">
-        <v>0.97540983606557297</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B430" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C430">
-        <v>0.93360995850622397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B431" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C431">
-        <v>0.703324808184143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B432" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -7932,21 +8176,21 @@
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B433" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C433">
-        <v>0.80156657963446398</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B434" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C434">
         <v>1</v>
@@ -7954,21 +8198,21 @@
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B435" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C435">
-        <v>0.74921630094043801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B436" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C436">
         <v>1</v>
@@ -7976,87 +8220,87 @@
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B437" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C437">
-        <v>0.85531914893617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B438" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C438">
-        <v>0.37280701754385898</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B439" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C439">
-        <v>0.58450704225352101</v>
+        <v>0.97887323943661897</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B440" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C440">
-        <v>0.9</v>
+        <v>0.99381443298968997</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B441" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C441">
-        <v>0.57575757575757502</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B442" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C442">
-        <v>0.64285714285714202</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B443" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C443">
-        <v>0.26639344262295001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B444" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C444">
         <v>1</v>
@@ -8064,21 +8308,21 @@
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B445" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C445">
-        <v>0.96083550913838101</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B446" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C446">
         <v>1</v>
@@ -8086,43 +8330,43 @@
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B447" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C447">
-        <v>1</v>
+        <v>0.99009900990098998</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B448" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C448">
-        <v>0.90647482014388403</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B449" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C449">
-        <v>0.74921630094043801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B450" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C450">
         <v>1</v>
@@ -8130,21 +8374,21 @@
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B451" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C451">
-        <v>1</v>
+        <v>0.97540983606557297</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B452" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C452">
         <v>1</v>
@@ -8152,43 +8396,43 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B453" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C453">
-        <v>0.455670103092783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B454" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C454">
-        <v>0.89754098360655699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B455" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C455">
-        <v>0.40368852459016302</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B456" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -8196,46 +8440,46 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B457" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C457">
-        <v>0.35891089108910801</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B458" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C458">
-        <v>0.36235955056179697</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B459" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C459">
-        <v>0.26822157434402299</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B460" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C460">
-        <v>0.48</v>
+        <v>0.96348314606741503</v>
       </c>
     </row>
   </sheetData>
